--- a/EVALUACIÓN/GRÁFICO DE BARRAS ÁRBOL DE DECISIÓN Y SVM.xlsx
+++ b/EVALUACIÓN/GRÁFICO DE BARRAS ÁRBOL DE DECISIÓN Y SVM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C4CC5-7B12-4BAB-9F5C-D128C038AC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C731A134-3C21-4C5E-A8C9-61FE9A36CC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="530" windowWidth="9240" windowHeight="8610" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRECISIÓN GRÁFICO SVM" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Hoja2" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="PRECISIÓN GRÁFICO ÁRBOL D." sheetId="2" r:id="rId5"/>
     <sheet name="ACCURACY GRÁFICO ÁRBOL D." sheetId="6" r:id="rId6"/>
-    <sheet name="RECALL GRÁFICO ÁRBOL D." sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="8" state="hidden" r:id="rId7"/>
+    <sheet name="RECALL GRÁFICO ÁRBOL D." sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,7 +140,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -170,7 +172,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -208,50 +210,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -368,50 +333,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -522,8 +450,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="728574976"/>
         <c:axId val="765792080"/>
       </c:barChart>
@@ -540,7 +468,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -582,6 +510,8 @@
         <c:axId val="765792080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="84.2"/>
+          <c:min val="82.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -633,6 +563,8 @@
         <c:crossAx val="728574976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -738,7 +670,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -770,7 +702,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -808,50 +740,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -968,50 +863,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1122,8 +980,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="728574976"/>
         <c:axId val="765792080"/>
       </c:barChart>
@@ -1140,7 +998,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1182,6 +1040,7 @@
         <c:axId val="765792080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="81.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1233,6 +1092,8 @@
         <c:crossAx val="728574976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.60000000000000009"/>
+        <c:minorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1338,7 +1199,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1370,7 +1231,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1408,50 +1269,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1568,50 +1392,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1695,7 +1482,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>82.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1722,8 +1509,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="728574976"/>
         <c:axId val="765792080"/>
       </c:barChart>
@@ -1740,7 +1527,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1782,6 +1569,7 @@
         <c:axId val="765792080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="81.099999999999994"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1938,7 +1726,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1952,15 +1740,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-EC"/>
-              <a:t>Árbol</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-EC" baseline="0"/>
-              <a:t> de Decisión (DT)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-EC"/>
-              <a:t>- Precisión</a:t>
+              <a:t>Árbol de Decisión (DT)- Precisión</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1978,7 +1758,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2016,50 +1796,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2176,50 +1919,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2330,8 +2036,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="728574976"/>
         <c:axId val="765792080"/>
       </c:barChart>
@@ -2348,7 +2054,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2390,6 +2096,8 @@
         <c:axId val="765792080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="84.1"/>
+          <c:min val="83.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2441,6 +2149,7 @@
         <c:crossAx val="728574976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3158,7 +2867,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3172,15 +2881,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-EC"/>
-              <a:t>Árbol</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-EC" baseline="0"/>
-              <a:t> de Decisión (DT)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-EC"/>
-              <a:t>- Accuracy</a:t>
+              <a:t>Árbol de Decisión (DT)- Accuracy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3198,7 +2899,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3236,50 +2937,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3396,50 +3060,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3550,8 +3177,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="728574976"/>
         <c:axId val="765792080"/>
       </c:barChart>
@@ -3568,7 +3195,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -3661,6 +3288,7 @@
         <c:crossAx val="728574976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4378,7 +4006,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4392,15 +4020,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-EC"/>
-              <a:t>Árbol</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-EC" baseline="0"/>
-              <a:t> de Decisión (DT)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-EC"/>
-              <a:t>- Recall</a:t>
+              <a:t>Árbol de Decisión (DT)- Recall</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4418,7 +4038,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4456,50 +4076,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4616,50 +4199,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4770,8 +4316,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="728574976"/>
         <c:axId val="765792080"/>
       </c:barChart>
@@ -4788,7 +4334,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -4830,6 +4376,7 @@
         <c:axId val="765792080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="83.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4881,6 +4428,7 @@
         <c:crossAx val="728574976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5911,6 +5459,2018 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6412,7 +7972,510 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6914,8 +8977,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6926,7 +8989,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6939,7 +9002,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -6956,7 +9019,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6972,7 +9035,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7016,35 +9079,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7056,31 +9119,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7182,8 +9244,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -7273,20 +9341,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -7299,17 +9367,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7341,7 +9398,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7350,13 +9407,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7410,2518 +9468,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10523,7 +10077,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>240425</xdr:colOff>
+      <xdr:colOff>441739</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>102232</xdr:rowOff>
     </xdr:to>
@@ -10566,9 +10120,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>136783</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>174164</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>36080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10647,7 +10201,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>136783</xdr:colOff>
+      <xdr:colOff>469035</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>174164</xdr:rowOff>
     </xdr:to>
@@ -10722,15 +10276,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
+      <xdr:colOff>501649</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>136783</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>174164</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112532</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>64302</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11086,7 +10640,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11153,8 +10707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF733B30-A03A-4CFB-9FFE-1BB93008D21F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11221,8 +10775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E77AC0D-86BE-46B0-813E-50BD589D3D74}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11253,7 +10807,7 @@
       <c r="B3">
         <v>82.34</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>82.2</v>
       </c>
     </row>
@@ -11281,7 +10835,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11302,7 +10857,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11371,8 +10926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659385B2-F521-4F30-BADF-C3BEA52E439C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11438,11 +10993,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EEC711-A497-4299-AD1B-EF53764B527A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F1D1C7-5283-4EB5-B712-CCB80CFD39CF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
